--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T17:43:35+00:00</t>
+    <t>2021-11-20T18:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T18:54:24+00:00</t>
+    <t>2021-11-20T20:04:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -585,85 +585,93 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-20T20:04:00+00:00</t>
+    <t>2021-11-22T09:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T09:44:34+00:00</t>
+    <t>2021-11-22T10:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:13:18+00:00</t>
+    <t>2021-11-22T16:33:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:33:31+00:00</t>
+    <t>2021-11-22T16:35:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T16:35:05+00:00</t>
+    <t>2021-11-23T10:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T10:24:37+00:00</t>
+    <t>2021-11-23T11:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T11:13:22+00:00</t>
+    <t>2021-11-23T15:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T15:36:06+00:00</t>
+    <t>2021-11-23T15:50:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T15:50:17+00:00</t>
+    <t>2021-11-23T16:28:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T16:28:14+00:00</t>
+    <t>2021-11-23T16:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T16:31:44+00:00</t>
+    <t>2021-11-24T08:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:33:00+00:00</t>
+    <t>2021-11-24T08:49:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:49:16+00:00</t>
+    <t>2021-11-24T08:58:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T08:58:15+00:00</t>
+    <t>2021-11-24T09:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T09:04:17+00:00</t>
+    <t>2021-11-24T10:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T10:25:52+00:00</t>
+    <t>2021-11-24T11:33:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T11:33:08+00:00</t>
+    <t>2021-11-24T12:31:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T12:31:34+00:00</t>
+    <t>2021-11-24T16:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T16:54:20+00:00</t>
+    <t>2021-11-25T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T10:23:53+00:00</t>
+    <t>2021-11-25T10:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-25T10:43:38+00:00</t>
+    <t>2021-11-26T11:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T11:10:51+00:00</t>
+    <t>2021-11-26T12:59:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T12:59:35+00:00</t>
+    <t>2021-11-29T15:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:12:38+00:00</t>
+    <t>2021-11-29T15:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-29T15:16:16+00:00</t>
+    <t>2022-01-10T10:36:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:36:54+00:00</t>
+    <t>2022-01-10T10:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:51:56+00:00</t>
+    <t>2022-01-10T13:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:49:22+00:00</t>
+    <t>2022-01-10T14:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:20:15+00:00</t>
+    <t>2022-01-10T19:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:37:31+00:00</t>
+    <t>2022-01-10T19:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:38:49+00:00</t>
+    <t>2022-01-10T19:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:48:00+00:00</t>
+    <t>2022-01-11T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-drugCharacteristic.xlsx
+++ b/StructureDefinition-drugCharacteristic.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:25:15+00:00</t>
+    <t>2022-01-11T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
